--- a/竣工资料/地库/地库  2.分项工程验收记录.xlsx
+++ b/竣工资料/地库/地库  2.分项工程验收记录.xlsx
@@ -251,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -310,16 +310,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -330,31 +338,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,7 +355,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -384,6 +370,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -391,15 +384,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -413,31 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -451,9 +421,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -481,7 +481,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,25 +523,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,19 +559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,13 +577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,13 +601,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,73 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,6 +1039,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1068,11 +1083,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,153 +1135,105 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1242,34 +1242,34 @@
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14814814814815" defaultRowHeight="14.25" customHeight="1"/>
@@ -10303,7 +10303,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W5" sqref="W5:Z6"/>
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14814814814815" defaultRowHeight="14.25" customHeight="1"/>
@@ -11330,7 +11330,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12384,7 +12386,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47" right="0.39" top="0.12" bottom="0.16" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -13454,7 +13456,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14508,7 +14512,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47" right="0.39" top="0.12" bottom="0.16" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
